--- a/results/mp/logistic/corona/confidence/210/desired-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-0.15/avg_0.004_scores.xlsx
@@ -40,18 +40,18 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
@@ -61,7 +61,7 @@
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>fears</t>
   </si>
   <si>
     <t>low</t>
@@ -73,24 +73,27 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>love</t>
+    <t>best</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
@@ -103,70 +106,67 @@
     <t>thank</t>
   </si>
   <si>
-    <t>special</t>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>good</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>won</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,7 +593,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8918918918918919</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C3">
         <v>33</v>
@@ -611,19 +611,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -643,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.868421052631579</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -743,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8561643835616438</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C6">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K6">
-        <v>0.9302325581395349</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7222222222222222</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K7">
-        <v>0.9190600522193212</v>
+        <v>0.9242819843342036</v>
       </c>
       <c r="L7">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M7">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5608465608465608</v>
+        <v>0.5502645502645502</v>
       </c>
       <c r="C8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K8">
-        <v>0.9152542372881356</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L8">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4883720930232558</v>
+        <v>0.5174418604651163</v>
       </c>
       <c r="C9">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="D9">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -911,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8943661971830986</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L9">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -943,7 +943,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4406779661016949</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C10">
         <v>26</v>
@@ -961,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8936170212765957</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -993,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2147651006711409</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1011,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8928571428571429</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1043,13 +1043,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.08055555555555556</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K12">
-        <v>0.890625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1093,13 +1093,13 @@
         <v>29</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.890625</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1119,13 +1119,13 @@
         <v>30</v>
       </c>
       <c r="K14">
-        <v>0.8867924528301887</v>
+        <v>0.88125</v>
       </c>
       <c r="L14">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="M14">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1145,13 +1145,13 @@
         <v>31</v>
       </c>
       <c r="K15">
-        <v>0.875</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L15">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="M15">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1171,13 +1171,13 @@
         <v>32</v>
       </c>
       <c r="K16">
-        <v>0.8658536585365854</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L16">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="M16">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1197,13 +1197,13 @@
         <v>33</v>
       </c>
       <c r="K17">
-        <v>0.8620689655172413</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1223,13 +1223,13 @@
         <v>34</v>
       </c>
       <c r="K18">
-        <v>0.8611111111111112</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1275,13 +1275,13 @@
         <v>36</v>
       </c>
       <c r="K20">
-        <v>0.8125</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1301,13 +1301,13 @@
         <v>37</v>
       </c>
       <c r="K21">
-        <v>0.8095238095238095</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L21">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1327,13 +1327,13 @@
         <v>38</v>
       </c>
       <c r="K22">
-        <v>0.8</v>
+        <v>0.7457627118644068</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1353,13 +1353,13 @@
         <v>39</v>
       </c>
       <c r="K23">
-        <v>0.78</v>
+        <v>0.7411764705882353</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1379,13 +1379,13 @@
         <v>40</v>
       </c>
       <c r="K24">
-        <v>0.7617647058823529</v>
+        <v>0.72</v>
       </c>
       <c r="L24">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>81</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1405,13 +1405,13 @@
         <v>41</v>
       </c>
       <c r="K25">
-        <v>0.7428571428571429</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1431,13 +1431,13 @@
         <v>42</v>
       </c>
       <c r="K26">
-        <v>0.735593220338983</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L26">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="M26">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1483,13 +1483,13 @@
         <v>44</v>
       </c>
       <c r="K28">
-        <v>0.6808510638297872</v>
+        <v>0.7</v>
       </c>
       <c r="L28">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1509,13 +1509,13 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>0.6461538461538462</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="L29">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M29">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1535,13 +1535,13 @@
         <v>46</v>
       </c>
       <c r="K30">
-        <v>0.6292134831460674</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L30">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M30">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1561,13 +1561,13 @@
         <v>47</v>
       </c>
       <c r="K31">
-        <v>0.6285714285714286</v>
+        <v>0.6</v>
       </c>
       <c r="L31">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M31">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1587,13 +1587,13 @@
         <v>48</v>
       </c>
       <c r="K32">
-        <v>0.5294117647058824</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1613,13 +1613,13 @@
         <v>49</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L33">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1639,13 +1639,13 @@
         <v>50</v>
       </c>
       <c r="K34">
-        <v>0.4657534246575342</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L34">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
